--- a/Code/Results/Cases/Case_6_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.965490764350779</v>
+        <v>0.9654907643507809</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974278</v>
+        <v>0.9909410204974296</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264219</v>
+        <v>0.9741685343264241</v>
       </c>
       <c r="F2">
-        <v>0.94041658423045</v>
+        <v>0.9404165842304517</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,19 +439,19 @@
         <v>1.031922783209725</v>
       </c>
       <c r="J2">
-        <v>0.9887550190430504</v>
+        <v>0.9887550190430523</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.00252802087389</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858099</v>
+        <v>0.9859998716858119</v>
       </c>
       <c r="M2">
-        <v>0.9527735354147128</v>
+        <v>0.9527735354147144</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818775</v>
+        <v>0.9901591645818792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726542</v>
+        <v>0.976937778272656</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836426</v>
+        <v>0.9997854397836443</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632367</v>
+        <v>0.9840772148632382</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614442</v>
+        <v>0.9551008209614459</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.035901098305475</v>
       </c>
       <c r="J3">
-        <v>0.9980775158039464</v>
+        <v>0.998077515803948</v>
       </c>
       <c r="K3">
-        <v>1.010421066684089</v>
+        <v>1.010421066684091</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096958</v>
+        <v>0.9949179680096975</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622391</v>
+        <v>0.9663423658622405</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574793</v>
+        <v>0.999494900357481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851462998</v>
+        <v>0.9839783851462995</v>
       </c>
       <c r="D4">
         <v>1.005228524489156</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860824</v>
+        <v>0.9901733654860821</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189432</v>
+        <v>0.9641161828189426</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.03832812846267</v>
       </c>
       <c r="J4">
-        <v>1.003800998517012</v>
+        <v>1.003800998517011</v>
       </c>
       <c r="K4">
         <v>1.015264252778431</v>
       </c>
       <c r="L4">
-        <v>1.000391854265675</v>
+        <v>1.000391854265674</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722118</v>
+        <v>0.9746678970722114</v>
       </c>
       <c r="N4">
-        <v>1.00522651107249</v>
+        <v>1.005226511072489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.986858738835395</v>
+        <v>0.9868587388353968</v>
       </c>
       <c r="D5">
-        <v>1.007455842516653</v>
+        <v>1.007455842516654</v>
       </c>
       <c r="E5">
-        <v>0.9926675865989939</v>
+        <v>0.9926675865989958</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635562</v>
+        <v>0.9678015032635578</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.039316173292203</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.006139972752386</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.017242743187998</v>
       </c>
       <c r="L5">
-        <v>1.002628475881026</v>
+        <v>1.002628475881028</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954487</v>
+        <v>0.9780699145954502</v>
       </c>
       <c r="N5">
-        <v>1.007568806919561</v>
+        <v>1.007568806919562</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745863</v>
+        <v>0.9873379146745882</v>
       </c>
       <c r="D6">
-        <v>1.007826403054638</v>
+        <v>1.00782640305464</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488187</v>
+        <v>0.9930825358488206</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851103</v>
+        <v>0.9684144476851126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224131</v>
+        <v>1.039480255224132</v>
       </c>
       <c r="J6">
-        <v>1.00652893432371</v>
+        <v>1.006528934323712</v>
       </c>
       <c r="K6">
-        <v>1.017571711774971</v>
+        <v>1.017571711774973</v>
       </c>
       <c r="L6">
-        <v>1.003000395017313</v>
+        <v>1.003000395017315</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486404</v>
+        <v>0.9786356599486428</v>
       </c>
       <c r="N6">
-        <v>1.007958320860932</v>
+        <v>1.007958320860934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>0.9840171751390884</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.005258518239084</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987652</v>
+        <v>0.9902069545987645</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624469</v>
+        <v>0.9641658237624453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.03834145402268</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.003832507828013</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.015290908914405</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.000421986182323</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927399</v>
+        <v>0.9747137272927383</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
+        <v>1.005258065130327</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387373</v>
+        <v>0.9694405642387338</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524749</v>
+        <v>0.9939919313524719</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857664</v>
+        <v>0.9775870564857631</v>
       </c>
       <c r="F8">
-        <v>0.945487573691759</v>
+        <v>0.9454875736917551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.033299692901625</v>
       </c>
       <c r="J8">
-        <v>0.991973959178115</v>
+        <v>0.9919739591781116</v>
       </c>
       <c r="K8">
-        <v>1.005253905520325</v>
+        <v>1.005253905520322</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737374</v>
+        <v>0.9890794349737341</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455068</v>
+        <v>0.9574603399455031</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811516</v>
+        <v>0.9933826759811479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9404921245538184</v>
+        <v>0.9404921245538199</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397518</v>
+        <v>0.9716595572397532</v>
       </c>
       <c r="E9">
-        <v>0.9525488128689398</v>
+        <v>0.9525488128689409</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377845</v>
+        <v>0.9081908437377857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.023123225375349</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523495</v>
+        <v>0.9683366344523509</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107438</v>
+        <v>0.9852298065107452</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112724</v>
+        <v>0.9664617163112739</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590702</v>
+        <v>0.9229725790590715</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430363</v>
+        <v>0.9697117835430379</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767529</v>
+        <v>0.9181586749767537</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360321</v>
+        <v>0.9544872958360328</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866866</v>
+        <v>0.9332670813866873</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765311</v>
+        <v>0.8791478755765318</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.015167182094804</v>
       </c>
       <c r="J10">
-        <v>0.9500428733849612</v>
+        <v>0.950042873384962</v>
       </c>
       <c r="K10">
-        <v>0.9697299717892687</v>
+        <v>0.9697299717892695</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703446</v>
+        <v>0.9489556601703454</v>
       </c>
       <c r="M10">
-        <v>0.8961056097433054</v>
+        <v>0.8961056097433063</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366084</v>
+        <v>0.9513920432366094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683163</v>
+        <v>0.9074894808683138</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151988</v>
+        <v>0.9463057842151972</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330548</v>
+        <v>0.9240699498330524</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241345</v>
+        <v>0.865164042524132</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.011344050402005</v>
       </c>
       <c r="J11">
-        <v>0.9412903571358251</v>
+        <v>0.9412903571358227</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240271</v>
+        <v>0.962316674624025</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734405</v>
+        <v>0.940581432173438</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924785</v>
+        <v>0.883171856992476</v>
       </c>
       <c r="N11">
-        <v>0.942627097410471</v>
+        <v>0.9426270974104687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.903341897476608</v>
+        <v>0.9033418974766095</v>
       </c>
       <c r="D12">
-        <v>0.9431295511592346</v>
+        <v>0.9431295511592361</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105188</v>
+        <v>0.9204974355105203</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019134</v>
+        <v>0.8597057074019155</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.009854783513706</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235843</v>
+        <v>0.937885941723586</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509768</v>
+        <v>0.9594338999509783</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671008</v>
+        <v>0.9373245981671025</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933876</v>
+        <v>0.8781244191933898</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378529</v>
+        <v>0.9392178473378544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294966</v>
+        <v>0.9042406155294972</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657292</v>
+        <v>0.9438175818657298</v>
       </c>
       <c r="E13">
-        <v>0.921271405298777</v>
+        <v>0.9212714052987773</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436786</v>
+        <v>0.8608895603436794</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.010177616041495</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065385</v>
+        <v>0.9386237126065394</v>
       </c>
       <c r="K13">
-        <v>0.9600585862385058</v>
+        <v>0.9600585862385066</v>
       </c>
       <c r="L13">
-        <v>0.938030362233786</v>
+        <v>0.9380303622337863</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124514</v>
+        <v>0.8792190938124521</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400846</v>
+        <v>0.9399566659400852</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.907150650842325</v>
+        <v>0.9071506508423247</v>
       </c>
       <c r="D14">
-        <v>0.946046214662892</v>
+        <v>0.9460462146628914</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841677</v>
+        <v>0.9237780379841672</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152784</v>
+        <v>0.8647186199152782</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.011222446363597</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041599</v>
+        <v>0.9410122775041594</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338601</v>
+        <v>0.9620811865338597</v>
       </c>
       <c r="L14">
         <v>0.9403153968150498</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598238</v>
+        <v>0.8827599401598236</v>
       </c>
       <c r="N14">
-        <v>0.9423486228738325</v>
+        <v>0.9423486228738323</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9089179155343103</v>
+        <v>0.9089179155343129</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969426</v>
+        <v>0.9474002519969449</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184362</v>
+        <v>0.9253007051184385</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935057</v>
+        <v>0.8670409167935085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500697</v>
+        <v>1.011856586500698</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591477</v>
+        <v>0.9424626039591503</v>
       </c>
       <c r="K15">
-        <v>0.963309408284047</v>
+        <v>0.9633094082840492</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475301</v>
+        <v>0.9417029255475323</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695087</v>
+        <v>0.8849075935695115</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587413</v>
+        <v>0.943801008958744</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247813</v>
+        <v>0.9188430344247801</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822881</v>
+        <v>0.9550126057822875</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9338573557981796</v>
       </c>
       <c r="F16">
-        <v>0.8800422117948178</v>
+        <v>0.8800422117948165</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.015411983493058</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276595</v>
+        <v>0.9506040287276584</v>
       </c>
       <c r="K16">
-        <v>0.97020534232955</v>
+        <v>0.9702053423295491</v>
       </c>
       <c r="L16">
-        <v>0.949492607503976</v>
+        <v>0.9494926075039748</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985034</v>
+        <v>0.8969328842985022</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842587</v>
+        <v>0.9519539954842576</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572892</v>
+        <v>0.9247805731572891</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128867</v>
+        <v>0.9595727225128863</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944716</v>
+        <v>0.9389802187944718</v>
       </c>
       <c r="F17">
-        <v>0.887789109474971</v>
+        <v>0.8877891094749709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017533476314582</v>
+        <v>1.017533476314581</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270773</v>
+        <v>0.9554712080270772</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575921</v>
+        <v>0.9743287701575917</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957386</v>
+        <v>0.9541499909957387</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834659</v>
+        <v>0.9040991897834657</v>
       </c>
       <c r="N17">
-        <v>0.956828086736555</v>
+        <v>0.9568280867365548</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824692</v>
+        <v>0.9281503159824691</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599882</v>
+        <v>0.962162668059988</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653444</v>
+        <v>0.9418888452653442</v>
       </c>
       <c r="F18">
-        <v>0.8921762317659471</v>
+        <v>0.8921762317659466</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.018735439664686</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593234</v>
+        <v>0.9582322887593232</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313469</v>
+        <v>0.9766681306313466</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929518</v>
+        <v>0.9567921686929517</v>
       </c>
       <c r="M18">
-        <v>0.9081576818926549</v>
+        <v>0.9081576818926546</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201415</v>
+        <v>0.9595930885201412</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1121,13 +1121,13 @@
         <v>0.9292843122336238</v>
       </c>
       <c r="D19">
-        <v>0.9630345489532575</v>
+        <v>0.9630345489532572</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9428678587838414</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>0.8936511228011337</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,13 +1136,13 @@
         <v>1.019139572302095</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644658</v>
+        <v>0.9591612511644657</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573777</v>
+        <v>0.9774552308573775</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>0.9576811399335112</v>
       </c>
       <c r="M19">
         <v>0.9095221045214265</v>
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001784</v>
+        <v>0.9241534169001744</v>
       </c>
       <c r="D20">
-        <v>0.9590908493919788</v>
+        <v>0.9590908493919756</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933064</v>
+        <v>0.9384389796933029</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610739</v>
+        <v>0.8869718634610698</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01730960482155</v>
+        <v>1.017309604821549</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820768</v>
+        <v>0.9549572340820732</v>
       </c>
       <c r="K20">
-        <v>0.973893313364306</v>
+        <v>0.9738933133643028</v>
       </c>
       <c r="L20">
-        <v>0.953658158563054</v>
+        <v>0.9536581585630509</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333097</v>
+        <v>0.9033431715333057</v>
       </c>
       <c r="N20">
-        <v>0.9563133828895991</v>
+        <v>0.9563133828895954</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682178</v>
+        <v>0.9062991541682192</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357419</v>
+        <v>0.945393975535743</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112114</v>
+        <v>0.9230444966112126</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120871</v>
+        <v>0.8635988727120884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914045</v>
+        <v>1.010916801914046</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459218</v>
+        <v>0.9403134189459231</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250653</v>
+        <v>0.9614893804250665</v>
       </c>
       <c r="L21">
-        <v>0.9396468154103991</v>
+        <v>0.9396468154104002</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164333</v>
+        <v>0.8817244420164343</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562816</v>
+        <v>0.9416487718562828</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861765</v>
+        <v>0.8939777226861778</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194785</v>
+        <v>0.9359677829194794</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591711</v>
+        <v>0.9124378522591725</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776978</v>
+        <v>0.8473318493776992</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.006487131622149</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189573</v>
+        <v>0.9301960834189584</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111847</v>
+        <v>0.9529242008111858</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508508</v>
+        <v>0.9299692692508522</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866478</v>
+        <v>0.8666849789866492</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523942</v>
+        <v>0.9315170685523957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959795</v>
+        <v>0.9006286580959773</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987782</v>
+        <v>0.9410530974987767</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648737</v>
+        <v>0.9181612905648717</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687756</v>
+        <v>0.8561277971687736</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.008879730242804</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431248</v>
+        <v>0.9356583235431228</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215627</v>
+        <v>0.9575478701215615</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020652</v>
+        <v>0.935193709002063</v>
       </c>
       <c r="M23">
-        <v>0.874816246080953</v>
+        <v>0.8748162460809511</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840658</v>
+        <v>0.9369870656840639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752833</v>
+        <v>0.9244370883752844</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114072</v>
+        <v>0.9593088013114083</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235348</v>
+        <v>0.9386837858235363</v>
       </c>
       <c r="F24">
-        <v>0.8873415444452505</v>
+        <v>0.8873415444452522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.017410871437181</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786424</v>
+        <v>0.9551897153786435</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924834</v>
+        <v>0.9740902790924846</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526846</v>
+        <v>0.9538806244526858</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904998</v>
+        <v>0.9036851556905013</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362717</v>
+        <v>0.9565461943362729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424589</v>
+        <v>0.9484363546424576</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531665</v>
+        <v>0.977780996553165</v>
       </c>
       <c r="E25">
-        <v>0.9594157005291378</v>
+        <v>0.9594157005291369</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893497</v>
+        <v>0.9184594125893477</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.025933814807561</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477559</v>
+        <v>0.9748330026477544</v>
       </c>
       <c r="K25">
-        <v>0.9907343132801962</v>
+        <v>0.9907343132801948</v>
       </c>
       <c r="L25">
-        <v>0.9726784983089409</v>
+        <v>0.97267849830894</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929563</v>
+        <v>0.9324708030929545</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264242</v>
+        <v>0.9762173773264222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507809</v>
+        <v>0.9851487525236803</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974296</v>
+        <v>1.01043696539106</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264241</v>
+        <v>0.9935290884529743</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304517</v>
+        <v>0.9611975877135536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.041812887708334</v>
       </c>
       <c r="J2">
-        <v>0.9887550190430523</v>
+        <v>1.007782920675259</v>
       </c>
       <c r="K2">
-        <v>1.00252802087389</v>
+        <v>1.02175278673283</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858119</v>
+        <v>1.005079315614199</v>
       </c>
       <c r="M2">
-        <v>0.9527735354147144</v>
+        <v>0.9732253444455919</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006282710516015</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026451091558137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.976937778272656</v>
+        <v>0.9908292173829187</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836443</v>
+        <v>1.014227147754329</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632382</v>
+        <v>0.9981352263880949</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614459</v>
+        <v>0.9696952583875338</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305475</v>
+        <v>1.04323631420422</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.011573048110708</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.024681169239256</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096975</v>
+        <v>1.008792023077829</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>0.9807311631013146</v>
       </c>
       <c r="N3">
-        <v>0.999494900357481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007579407420617</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.028519078686104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851462995</v>
+        <v>0.9944073592480138</v>
       </c>
       <c r="D4">
-        <v>1.005228524489156</v>
+        <v>1.016616568760133</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860821</v>
+        <v>1.001043101268611</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189426</v>
+        <v>0.9750331003235251</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.044116924525071</v>
       </c>
       <c r="J4">
-        <v>1.003800998517011</v>
+        <v>1.013955215399346</v>
       </c>
       <c r="K4">
-        <v>1.015264252778431</v>
+        <v>1.026518499137046</v>
       </c>
       <c r="L4">
-        <v>1.000391854265674</v>
+        <v>1.011128953259255</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722114</v>
+        <v>0.9854424958965493</v>
       </c>
       <c r="N4">
-        <v>1.005226511072489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008394314634086</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.029819180017269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353968</v>
+        <v>0.9958939213973821</v>
       </c>
       <c r="D5">
-        <v>1.007455842516654</v>
+        <v>1.017611563764108</v>
       </c>
       <c r="E5">
-        <v>0.9926675865989958</v>
+        <v>1.002253351095792</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635578</v>
+        <v>0.9772456656279517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292203</v>
+        <v>1.04448026946031</v>
       </c>
       <c r="J5">
-        <v>1.006139972752386</v>
+        <v>1.014945019438184</v>
       </c>
       <c r="K5">
-        <v>1.017242743187998</v>
+        <v>1.027282589118149</v>
       </c>
       <c r="L5">
-        <v>1.002628475881028</v>
+        <v>1.012100736459155</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954502</v>
+        <v>0.9873949834107133</v>
       </c>
       <c r="N5">
-        <v>1.007568806919562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008733840893801</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.030366737620901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745882</v>
+        <v>0.9961477371840011</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.017783788030295</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488206</v>
+        <v>1.00246088044362</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851126</v>
+        <v>0.9776208353868562</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.044543782030583</v>
       </c>
       <c r="J6">
-        <v>1.006528934323712</v>
+        <v>1.015115640798324</v>
       </c>
       <c r="K6">
-        <v>1.017571711774973</v>
+        <v>1.02741604760189</v>
       </c>
       <c r="L6">
-        <v>1.003000395017315</v>
+        <v>1.01226825652923</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486428</v>
+        <v>0.987726603639093</v>
       </c>
       <c r="N6">
-        <v>1.007958320860934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008793533230205</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.030469964794952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390884</v>
+        <v>0.9944420840390382</v>
       </c>
       <c r="D7">
-        <v>1.005258518239084</v>
+        <v>1.016645987573561</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987645</v>
+        <v>1.00107355836868</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624453</v>
+        <v>0.9750782609116408</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03834145402268</v>
+        <v>1.044129984947024</v>
       </c>
       <c r="J7">
-        <v>1.003832507828013</v>
+        <v>1.013982895194926</v>
       </c>
       <c r="K7">
-        <v>1.015290908914405</v>
+        <v>1.026544641663506</v>
       </c>
       <c r="L7">
-        <v>1.000421986182323</v>
+        <v>1.011156046617282</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927383</v>
+        <v>0.9854839698356829</v>
       </c>
       <c r="N7">
-        <v>1.005258065130327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008406999083658</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.029858049110461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387338</v>
+        <v>0.9871079496805656</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524719</v>
+        <v>1.01175125048186</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857631</v>
+        <v>0.9951192684629004</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917551</v>
+        <v>0.9641236892575238</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901625</v>
+        <v>1.042312614744173</v>
       </c>
       <c r="J8">
-        <v>0.9919739591781116</v>
+        <v>1.009096849073157</v>
       </c>
       <c r="K8">
-        <v>1.005253905520322</v>
+        <v>1.022774362028637</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737341</v>
+        <v>1.006365760780049</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455031</v>
+        <v>0.9758126036167479</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.00673647757005</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027196727136061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9404921245538199</v>
+        <v>0.9733573195984544</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397532</v>
+        <v>1.002584984156499</v>
       </c>
       <c r="E9">
-        <v>0.9525488128689409</v>
+        <v>0.984007005054528</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377857</v>
+        <v>0.9434488059836202</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375349</v>
+        <v>1.038771999823018</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523509</v>
+        <v>0.9998872974567149</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107452</v>
+        <v>1.015636260559004</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112739</v>
+        <v>0.9973649986692416</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590715</v>
+        <v>0.9575312470800548</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.003581894873256</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.022146182392626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767537</v>
+        <v>0.9635674718133653</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360328</v>
+        <v>0.9960820336693038</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866873</v>
+        <v>0.9761388557664018</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765318</v>
+        <v>0.9285823446578637</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094804</v>
+        <v>1.036171300265503</v>
       </c>
       <c r="J10">
-        <v>0.950042873384962</v>
+        <v>0.9933050397794607</v>
       </c>
       <c r="K10">
-        <v>0.9697299717892695</v>
+        <v>1.010522390377208</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703454</v>
+        <v>0.9909527225500362</v>
       </c>
       <c r="M10">
-        <v>0.8961056097433063</v>
+        <v>0.9443730158460028</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001329333989848</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.018547359325499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683138</v>
+        <v>0.9591763613425305</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151972</v>
+        <v>0.9931787959139979</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330524</v>
+        <v>0.972624475725543</v>
       </c>
       <c r="F11">
-        <v>0.865164042524132</v>
+        <v>0.9218594573296891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402005</v>
+        <v>1.034991322664558</v>
       </c>
       <c r="J11">
-        <v>0.9412903571358227</v>
+        <v>0.9903519060408654</v>
       </c>
       <c r="K11">
-        <v>0.962316674624025</v>
+        <v>1.008230506913104</v>
       </c>
       <c r="L11">
-        <v>0.940581432173438</v>
+        <v>0.9880818032207692</v>
       </c>
       <c r="M11">
-        <v>0.883171856992476</v>
+        <v>0.9384224716062455</v>
       </c>
       <c r="N11">
-        <v>0.9426270974104687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000324222653553</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.01696044958277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766095</v>
+        <v>0.9575066530391384</v>
       </c>
       <c r="D12">
-        <v>0.9431295511592361</v>
+        <v>0.9920720789760347</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105203</v>
+        <v>0.971287983960885</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019155</v>
+        <v>0.9192997514404346</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.03453728836589</v>
       </c>
       <c r="J12">
-        <v>0.937885941723586</v>
+        <v>0.9892250157676153</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509783</v>
+        <v>1.007352758065806</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671025</v>
+        <v>0.9869867385440113</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933898</v>
+        <v>0.9361555443108189</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9999379670965977</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.016339823138231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294972</v>
+        <v>0.9578639927591023</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657298</v>
+        <v>0.9923081202999361</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987773</v>
+        <v>0.971573538652216</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436794</v>
+        <v>0.9198488967194841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041495</v>
+        <v>1.034634061064801</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065394</v>
+        <v>0.9894656364305255</v>
       </c>
       <c r="K13">
-        <v>0.9600585862385066</v>
+        <v>1.007539648468796</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337863</v>
+        <v>0.9872204457607036</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124521</v>
+        <v>0.9366416757410093</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000019885910729</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.016469410765634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423247</v>
+        <v>0.9590380230978106</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628914</v>
+        <v>0.9930867541859764</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841672</v>
+        <v>0.972513542406114</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152782</v>
+        <v>0.9216479582700293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363597</v>
+        <v>1.034953538051094</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041594</v>
+        <v>0.9902583077738389</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338597</v>
+        <v>1.008157374285406</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150498</v>
+        <v>0.9879907980253438</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598236</v>
+        <v>0.9382350775117808</v>
       </c>
       <c r="N14">
-        <v>0.9423486228738323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.000291904128205</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.016907645275425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9089179155343129</v>
+        <v>0.9597617932621672</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>0.9935684366486484</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184385</v>
+        <v>0.973094045104074</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>0.922754057913583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.035151170649003</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591503</v>
+        <v>0.99074802748151</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840492</v>
+        <v>1.008540062169574</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475323</v>
+        <v>0.9884669898704503</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695115</v>
+        <v>0.9392151273299095</v>
       </c>
       <c r="N15">
-        <v>0.943801008958744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00046105615493</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.017184248892196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247801</v>
+        <v>0.9638911164920448</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822875</v>
+        <v>0.9963093778152519</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981796</v>
+        <v>0.9764046432935625</v>
       </c>
       <c r="F16">
-        <v>0.8800422117948165</v>
+        <v>0.9290606046856712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.036266933569781</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276584</v>
+        <v>0.9935327759475191</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295491</v>
+        <v>1.010708714110846</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039748</v>
+        <v>0.9911754261266494</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985022</v>
+        <v>0.9447999172437609</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.0014161308523</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.018720864849009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572891</v>
+        <v>0.9664336333311276</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128863</v>
+        <v>0.9979988892431938</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944718</v>
+        <v>0.9784460305937674</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749709</v>
+        <v>0.9329308021099501</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017533476314581</v>
+        <v>1.03694919142973</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270772</v>
+        <v>0.9952457626780278</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575917</v>
+        <v>1.012042096390723</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957387</v>
+        <v>0.9928428365964644</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834657</v>
+        <v>0.9482267059054946</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.002003674624073</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.019666292597793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824691</v>
+        <v>0.9678891759315582</v>
       </c>
       <c r="D18">
-        <v>0.962162668059988</v>
+        <v>0.9989626446148371</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653442</v>
+        <v>0.9796137767874418</v>
       </c>
       <c r="F18">
-        <v>0.8921762317659466</v>
+        <v>0.9351470504177197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664686</v>
+        <v>1.037335230539942</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593232</v>
+        <v>0.9962226927954623</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313466</v>
+        <v>1.012799308220625</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929517</v>
+        <v>0.9937939328244567</v>
       </c>
       <c r="M18">
-        <v>0.9081576818926546</v>
+        <v>0.9501877218197176</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.002335992720638</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.020189787434278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336238</v>
+        <v>0.9683912351794109</v>
       </c>
       <c r="D19">
-        <v>0.9630345489532572</v>
+        <v>0.999298332073604</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838414</v>
+        <v>0.9800182480573877</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011337</v>
+        <v>0.9359070282250598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.037470278398293</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644657</v>
+        <v>0.9965619952610306</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573775</v>
+        <v>1.013064579693608</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335112</v>
+        <v>0.9941245928156066</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214265</v>
+        <v>0.9508610002876633</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.002453578138101</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.020383884296542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001744</v>
+        <v>0.9661617108524554</v>
       </c>
       <c r="D20">
-        <v>0.9590908493919756</v>
+        <v>0.9978178156452365</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933029</v>
+        <v>0.978227443032018</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610698</v>
+        <v>0.9325177150111011</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821549</v>
+        <v>1.036876186298052</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820732</v>
+        <v>0.9950623776811597</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643028</v>
+        <v>1.011899144970743</v>
       </c>
       <c r="L20">
-        <v>0.9536581585630509</v>
+        <v>0.9926642542360524</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333057</v>
+        <v>0.9478608808178248</v>
       </c>
       <c r="N20">
-        <v>0.9563133828895954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001940555699189</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.019563851917806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682192</v>
+        <v>0.9587050212491419</v>
       </c>
       <c r="D21">
-        <v>0.945393975535743</v>
+        <v>0.9928701132752152</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112126</v>
+        <v>0.9722490505400371</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120884</v>
+        <v>0.9211326134343923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914046</v>
+        <v>1.034865886868183</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459231</v>
+        <v>0.9900368108002152</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250665</v>
+        <v>1.007987834372409</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104002</v>
+        <v>0.9877759620910573</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164343</v>
+        <v>0.9377798269740064</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000218991075987</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.016801621666795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861778</v>
+        <v>0.953837550787025</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194794</v>
+        <v>0.9896419365122229</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591725</v>
+        <v>0.9683542492887718</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776992</v>
+        <v>0.9136590077027783</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.033534417552468</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189584</v>
+        <v>0.9867466162436879</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111858</v>
+        <v>1.005421419731598</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508522</v>
+        <v>0.9845798076512706</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866492</v>
+        <v>0.9311595993938249</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.999088186872758</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.014973137938662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959773</v>
+        <v>0.9564199511750608</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987767</v>
+        <v>0.9913488474272066</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648717</v>
+        <v>0.9704169536429313</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687736</v>
+        <v>0.9176354634040342</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242804</v>
+        <v>1.034238801444843</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431228</v>
+        <v>0.9884887534331275</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215615</v>
+        <v>1.006776819710876</v>
       </c>
       <c r="L23">
-        <v>0.935193709002063</v>
+        <v>0.9862711406471342</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809511</v>
+        <v>0.9346806555568776</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9996831814950983</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.01592162353647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752844</v>
+        <v>0.9662614423331705</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114083</v>
+        <v>0.9978757157473785</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235363</v>
+        <v>0.9783035093773416</v>
       </c>
       <c r="F24">
-        <v>0.8873415444452522</v>
+        <v>0.9326794657748307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017410871437181</v>
+        <v>1.036897080821247</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786435</v>
+        <v>0.9951230720222204</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924846</v>
+        <v>1.011940239179406</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526858</v>
+        <v>0.9927226627681912</v>
       </c>
       <c r="M24">
-        <v>0.9036851556905013</v>
+        <v>0.9480017930228954</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001955592611381</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.019564890632805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9770397677584984</v>
       </c>
       <c r="D25">
-        <v>0.977780996553165</v>
+        <v>1.005045850807191</v>
       </c>
       <c r="E25">
-        <v>0.9594157005291369</v>
+        <v>0.9869800050319486</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893477</v>
+        <v>0.9489963152184797</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.039740967607312</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>1.002365335935788</v>
       </c>
       <c r="K25">
-        <v>0.9907343132801948</v>
+        <v>1.017566338198314</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>0.9997838591606559</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>0.9624416049122528</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264222</v>
+        <v>1.004436418659506</v>
+      </c>
+      <c r="Q25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R25">
+        <v>1.023540059270615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9851487525236803</v>
+        <v>0.9868311236291131</v>
       </c>
       <c r="D2">
-        <v>1.01043696539106</v>
+        <v>1.01176396067673</v>
       </c>
       <c r="E2">
-        <v>0.9935290884529743</v>
+        <v>0.9950087829055065</v>
       </c>
       <c r="F2">
-        <v>0.9611975877135536</v>
+        <v>0.9629730638120249</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041812887708334</v>
+        <v>1.042486303560021</v>
       </c>
       <c r="J2">
-        <v>1.007782920675259</v>
+        <v>1.009412976670067</v>
       </c>
       <c r="K2">
-        <v>1.02175278673283</v>
+        <v>1.023061802038172</v>
       </c>
       <c r="L2">
-        <v>1.005079315614199</v>
+        <v>1.006538094084728</v>
       </c>
       <c r="M2">
-        <v>0.9732253444455919</v>
+        <v>0.9749735356778962</v>
       </c>
       <c r="N2">
-        <v>1.006282710516015</v>
+        <v>1.009553829540909</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026451091558137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.027385621744709</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018270796336092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9908292173829187</v>
+        <v>0.9920946812091236</v>
       </c>
       <c r="D3">
-        <v>1.014227147754329</v>
+        <v>1.015127234806917</v>
       </c>
       <c r="E3">
-        <v>0.9981352263880949</v>
+        <v>0.99925129102173</v>
       </c>
       <c r="F3">
-        <v>0.9696952583875338</v>
+        <v>0.971023416535487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04323631420422</v>
+        <v>1.043693595721279</v>
       </c>
       <c r="J3">
-        <v>1.011573048110708</v>
+        <v>1.012803197935734</v>
       </c>
       <c r="K3">
-        <v>1.024681169239256</v>
+        <v>1.025570150557771</v>
       </c>
       <c r="L3">
-        <v>1.008792023077829</v>
+        <v>1.00989376069129</v>
       </c>
       <c r="M3">
-        <v>0.9807311631013146</v>
+        <v>0.982040993902181</v>
       </c>
       <c r="N3">
-        <v>1.007579407420617</v>
+        <v>1.010472590341357</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.028519078686104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029156307260259</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018834699166927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944073592480138</v>
+        <v>0.9954150689963165</v>
       </c>
       <c r="D4">
-        <v>1.016616568760133</v>
+        <v>1.017250807791632</v>
       </c>
       <c r="E4">
-        <v>1.001043101268611</v>
+        <v>1.001933948931421</v>
       </c>
       <c r="F4">
-        <v>0.9750331003235251</v>
+        <v>0.9760872369212557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044116924525071</v>
+        <v>1.044439379230728</v>
       </c>
       <c r="J4">
-        <v>1.013955215399346</v>
+        <v>1.014936789406774</v>
       </c>
       <c r="K4">
-        <v>1.026518499137046</v>
+        <v>1.027145395339313</v>
       </c>
       <c r="L4">
-        <v>1.011128953259255</v>
+        <v>1.012009088800084</v>
       </c>
       <c r="M4">
-        <v>0.9854424958965493</v>
+        <v>0.9864831009251316</v>
       </c>
       <c r="N4">
-        <v>1.008394314634086</v>
+        <v>1.011050874287307</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.029819180017269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030271158416708</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019185989029393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9958939213973821</v>
+        <v>0.9967954414484091</v>
       </c>
       <c r="D5">
-        <v>1.017611563764108</v>
+        <v>1.018135997310148</v>
       </c>
       <c r="E5">
-        <v>1.002253351095792</v>
+        <v>1.003051272994419</v>
       </c>
       <c r="F5">
-        <v>0.9772456656279517</v>
+        <v>0.9781874593545596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04448026946031</v>
+        <v>1.044746979951881</v>
       </c>
       <c r="J5">
-        <v>1.014945019438184</v>
+        <v>1.015823885630183</v>
       </c>
       <c r="K5">
-        <v>1.027282589118149</v>
+        <v>1.02780111628268</v>
       </c>
       <c r="L5">
-        <v>1.012100736459155</v>
+        <v>1.012889331253884</v>
       </c>
       <c r="M5">
-        <v>0.9873949834107133</v>
+        <v>0.9883250579459723</v>
       </c>
       <c r="N5">
-        <v>1.008733840893801</v>
+        <v>1.011291988707171</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.030366737620901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03074279201994</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019332064883652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9961477371840011</v>
+        <v>0.9970309711082903</v>
       </c>
       <c r="D6">
-        <v>1.017783788030295</v>
+        <v>1.018289461718004</v>
       </c>
       <c r="E6">
-        <v>1.00246088044362</v>
+        <v>1.003242724655171</v>
       </c>
       <c r="F6">
-        <v>0.9776208353868562</v>
+        <v>0.9785433211699835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044543782030583</v>
+        <v>1.044800965224298</v>
       </c>
       <c r="J6">
-        <v>1.015115640798324</v>
+        <v>1.015976799318653</v>
       </c>
       <c r="K6">
-        <v>1.02741604760189</v>
+        <v>1.027916052862685</v>
       </c>
       <c r="L6">
-        <v>1.01226825652923</v>
+        <v>1.013041005432311</v>
       </c>
       <c r="M6">
-        <v>0.987726603639093</v>
+        <v>0.9886376709389243</v>
       </c>
       <c r="N6">
-        <v>1.008793533230205</v>
+        <v>1.01133436063681</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.030469964794952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030833786976381</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019358278456303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944420840390382</v>
+        <v>0.9954589985937671</v>
       </c>
       <c r="D7">
-        <v>1.016645987573561</v>
+        <v>1.01728594878937</v>
       </c>
       <c r="E7">
-        <v>1.00107355836868</v>
+        <v>1.001972872439162</v>
       </c>
       <c r="F7">
-        <v>0.9750782609116408</v>
+        <v>0.9761420046465148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044129984947024</v>
+        <v>1.044455350402803</v>
       </c>
       <c r="J7">
-        <v>1.013982895194926</v>
+        <v>1.014973447769498</v>
       </c>
       <c r="K7">
-        <v>1.026544641663506</v>
+        <v>1.027177196862288</v>
       </c>
       <c r="L7">
-        <v>1.011156046617282</v>
+        <v>1.012044551323494</v>
       </c>
       <c r="M7">
-        <v>0.9854839698356829</v>
+        <v>0.9865340650486014</v>
       </c>
       <c r="N7">
-        <v>1.008406999083658</v>
+        <v>1.011089878613153</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.029858049110461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030316018695753</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019195660256393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9871079496805656</v>
+        <v>0.9886827707946618</v>
       </c>
       <c r="D8">
-        <v>1.01175125048186</v>
+        <v>1.012956368408982</v>
       </c>
       <c r="E8">
-        <v>0.9951192684629004</v>
+        <v>0.9965070872082146</v>
       </c>
       <c r="F8">
-        <v>0.9641236892575238</v>
+        <v>0.9657824701790305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042312614744173</v>
+        <v>1.042924411856892</v>
       </c>
       <c r="J8">
-        <v>1.009096849073157</v>
+        <v>1.010624433935569</v>
       </c>
       <c r="K8">
-        <v>1.022774362028637</v>
+        <v>1.023963651530642</v>
       </c>
       <c r="L8">
-        <v>1.006365760780049</v>
+        <v>1.007734581024149</v>
       </c>
       <c r="M8">
-        <v>0.9758126036167479</v>
+        <v>0.9774467939000504</v>
       </c>
       <c r="N8">
-        <v>1.00673647757005</v>
+        <v>1.009966907407139</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027196727136061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028048843852674</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018478916572171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9733573195984544</v>
+        <v>0.9759815957217642</v>
       </c>
       <c r="D9">
-        <v>1.002584984156499</v>
+        <v>1.004848739854559</v>
       </c>
       <c r="E9">
-        <v>0.984007005054528</v>
+        <v>0.986307767146037</v>
       </c>
       <c r="F9">
-        <v>0.9434488059836202</v>
+        <v>0.9462531188784543</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.038771999823018</v>
+        <v>1.039918294198526</v>
       </c>
       <c r="J9">
-        <v>0.9998872974567149</v>
+        <v>1.002411977507101</v>
       </c>
       <c r="K9">
-        <v>1.015636260559004</v>
+        <v>1.017863636442321</v>
       </c>
       <c r="L9">
-        <v>0.9973649986692416</v>
+        <v>0.9996269675325873</v>
       </c>
       <c r="M9">
-        <v>0.9575312470800548</v>
+        <v>0.9602828604378153</v>
       </c>
       <c r="N9">
-        <v>1.003581894873256</v>
+        <v>1.007749887711577</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.022146182392626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.023732099195278</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017089756767429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9635674718133653</v>
+        <v>0.967035001579538</v>
       </c>
       <c r="D10">
-        <v>0.9960820336693038</v>
+        <v>0.9991628368359573</v>
       </c>
       <c r="E10">
-        <v>0.9761388557664018</v>
+        <v>0.979172650436781</v>
       </c>
       <c r="F10">
-        <v>0.9285823446578637</v>
+        <v>0.9323308015925604</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.036171300265503</v>
+        <v>1.037728685406566</v>
       </c>
       <c r="J10">
-        <v>0.9933050397794607</v>
+        <v>0.996620449083367</v>
       </c>
       <c r="K10">
-        <v>1.010522390377208</v>
+        <v>1.01354722299121</v>
       </c>
       <c r="L10">
-        <v>0.9909527225500362</v>
+        <v>0.9939284144083206</v>
       </c>
       <c r="M10">
-        <v>0.9443730158460028</v>
+        <v>0.9480396753996124</v>
       </c>
       <c r="N10">
-        <v>1.001329333989848</v>
+        <v>1.006304702306926</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.018547359325499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.020698857369118</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016096138687387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9591763613425305</v>
+        <v>0.9631264864824006</v>
       </c>
       <c r="D11">
-        <v>0.9931787959139979</v>
+        <v>0.9966978810313971</v>
       </c>
       <c r="E11">
-        <v>0.972624475725543</v>
+        <v>0.9760825033203726</v>
       </c>
       <c r="F11">
-        <v>0.9218594573296891</v>
+        <v>0.9261534702928572</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.034991322664558</v>
+        <v>1.036768967171297</v>
       </c>
       <c r="J11">
-        <v>0.9903519060408654</v>
+        <v>0.9941179809129139</v>
       </c>
       <c r="K11">
-        <v>1.008230506913104</v>
+        <v>1.011682340315737</v>
       </c>
       <c r="L11">
-        <v>0.9880818032207692</v>
+        <v>0.9914700173712209</v>
       </c>
       <c r="M11">
-        <v>0.9384224716062455</v>
+        <v>0.9426166817834155</v>
       </c>
       <c r="N11">
-        <v>1.000324222653553</v>
+        <v>1.005872750192321</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.01696044958277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.019417062694481</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015672055971318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9575066530391384</v>
+        <v>0.961651853589978</v>
       </c>
       <c r="D12">
-        <v>0.9920720789760347</v>
+        <v>0.9957655652269709</v>
       </c>
       <c r="E12">
-        <v>0.971287983960885</v>
+        <v>0.974918171972969</v>
       </c>
       <c r="F12">
-        <v>0.9192997514404346</v>
+        <v>0.9238156242060168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03453728836589</v>
+        <v>1.036402523855062</v>
       </c>
       <c r="J12">
-        <v>0.9892250157676153</v>
+        <v>0.993172766208098</v>
       </c>
       <c r="K12">
-        <v>1.007352758065806</v>
+        <v>1.010974342466003</v>
       </c>
       <c r="L12">
-        <v>0.9869867385440113</v>
+        <v>0.9905422099783718</v>
       </c>
       <c r="M12">
-        <v>0.9361555443108189</v>
+        <v>0.9405639864079274</v>
       </c>
       <c r="N12">
-        <v>0.9999379670965977</v>
+        <v>1.005724795685475</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.016339823138231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.018916475746098</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015510012534556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9578639927591023</v>
+        <v>0.9619670796995703</v>
       </c>
       <c r="D13">
-        <v>0.9923081202999361</v>
+        <v>0.9959639944410754</v>
       </c>
       <c r="E13">
-        <v>0.971573538652216</v>
+        <v>0.9751665901706084</v>
       </c>
       <c r="F13">
-        <v>0.9198488967194841</v>
+        <v>0.9243167883295126</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.034634061064801</v>
+        <v>1.036480409588033</v>
       </c>
       <c r="J13">
-        <v>0.9894656364305255</v>
+        <v>0.9933741985506496</v>
       </c>
       <c r="K13">
-        <v>1.007539648468796</v>
+        <v>1.011124633248975</v>
       </c>
       <c r="L13">
-        <v>0.9872204457607036</v>
+        <v>0.9907398489813067</v>
       </c>
       <c r="M13">
-        <v>0.9366416757410093</v>
+        <v>0.9410038059571698</v>
       </c>
       <c r="N13">
-        <v>1.000019885910729</v>
+        <v>1.005755071815079</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.016469410765634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.019019943806041</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01554416517986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9590380230978106</v>
+        <v>0.9630041385601328</v>
       </c>
       <c r="D14">
-        <v>0.9930867541859764</v>
+        <v>0.996620154529685</v>
       </c>
       <c r="E14">
-        <v>0.972513542406114</v>
+        <v>0.9759856937102683</v>
       </c>
       <c r="F14">
-        <v>0.9216479582700293</v>
+        <v>0.9259601199077793</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.034953538051094</v>
+        <v>1.036738373666642</v>
       </c>
       <c r="J14">
-        <v>0.9902583077738389</v>
+        <v>0.9940392887793063</v>
       </c>
       <c r="K14">
-        <v>1.008157374285406</v>
+        <v>1.011623145454957</v>
       </c>
       <c r="L14">
-        <v>0.9879907980253438</v>
+        <v>0.9913927382822957</v>
       </c>
       <c r="M14">
-        <v>0.9382350775117808</v>
+        <v>0.9424468209387196</v>
       </c>
       <c r="N14">
-        <v>1.000291904128205</v>
+        <v>1.00585987036185</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.016907645275425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.019374012381426</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.015658402204755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9597617932621672</v>
+        <v>0.9636446809202138</v>
       </c>
       <c r="D15">
-        <v>0.9935684366486484</v>
+        <v>0.9970272424119676</v>
       </c>
       <c r="E15">
-        <v>0.973094045104074</v>
+        <v>0.9764926976755254</v>
       </c>
       <c r="F15">
-        <v>0.922754057913583</v>
+        <v>0.926971818958417</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.035151170649003</v>
+        <v>1.036898531978259</v>
       </c>
       <c r="J15">
-        <v>0.99074802748151</v>
+        <v>0.9944514008331531</v>
       </c>
       <c r="K15">
-        <v>1.008540062169574</v>
+        <v>1.011933198442412</v>
       </c>
       <c r="L15">
-        <v>0.9884669898704503</v>
+        <v>0.9917974932861741</v>
       </c>
       <c r="M15">
-        <v>0.9392151273299095</v>
+        <v>0.943335657278773</v>
       </c>
       <c r="N15">
-        <v>1.00046105615493</v>
+        <v>1.005928071504749</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.017184248892196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.019599813585668</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015729951306189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9638911164920448</v>
+        <v>0.9673232181436525</v>
       </c>
       <c r="D16">
-        <v>0.9963093778152519</v>
+        <v>0.9993586347119041</v>
       </c>
       <c r="E16">
-        <v>0.9764046432935625</v>
+        <v>0.9794066294245882</v>
       </c>
       <c r="F16">
-        <v>0.9290606046856712</v>
+        <v>0.9327694083188145</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.036266933569781</v>
+        <v>1.037808448783642</v>
       </c>
       <c r="J16">
-        <v>0.9935327759475191</v>
+        <v>0.9968149340293641</v>
       </c>
       <c r="K16">
-        <v>1.010708714110846</v>
+        <v>1.013702767043457</v>
       </c>
       <c r="L16">
-        <v>0.9911754261266494</v>
+        <v>0.9941201271670298</v>
       </c>
       <c r="M16">
-        <v>0.9447999172437609</v>
+        <v>0.9484281374586188</v>
       </c>
       <c r="N16">
-        <v>1.0014161308523</v>
+        <v>1.00635003667435</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.018720864849009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.020854522998861</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016135732976916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9664336333311276</v>
+        <v>0.9696099319114022</v>
       </c>
       <c r="D17">
-        <v>0.9979988892431938</v>
+        <v>1.000810857389384</v>
       </c>
       <c r="E17">
-        <v>0.9784460305937674</v>
+        <v>0.9812237282651844</v>
       </c>
       <c r="F17">
-        <v>0.9329308021099501</v>
+        <v>0.9363525866213795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.03694919142973</v>
+        <v>1.038371358868674</v>
       </c>
       <c r="J17">
-        <v>0.9952457626780278</v>
+        <v>0.9982882164331077</v>
       </c>
       <c r="K17">
-        <v>1.012042096390723</v>
+        <v>1.014804684260119</v>
       </c>
       <c r="L17">
-        <v>0.9928428365964644</v>
+        <v>0.9955691826236346</v>
       </c>
       <c r="M17">
-        <v>0.9482267059054946</v>
+        <v>0.9515768809328424</v>
       </c>
       <c r="N17">
-        <v>1.002003674624073</v>
+        <v>1.006650353837344</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.019666292597793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.021636519801394</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016388832931984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9678891759315582</v>
+        <v>0.9709278876798464</v>
       </c>
       <c r="D18">
-        <v>0.9989626446148371</v>
+        <v>1.001644612212295</v>
       </c>
       <c r="E18">
-        <v>0.9796137767874418</v>
+        <v>0.9822713644989735</v>
       </c>
       <c r="F18">
-        <v>0.9351470504177197</v>
+        <v>0.9384149054082056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.037335230539942</v>
+        <v>1.038691988963283</v>
       </c>
       <c r="J18">
-        <v>0.9962226927954623</v>
+        <v>0.9991360530420053</v>
       </c>
       <c r="K18">
-        <v>1.012799308220625</v>
+        <v>1.015435017764022</v>
       </c>
       <c r="L18">
-        <v>0.9937939328244567</v>
+        <v>0.9964032990500321</v>
       </c>
       <c r="M18">
-        <v>0.9501877218197176</v>
+        <v>0.9533886771947594</v>
       </c>
       <c r="N18">
-        <v>1.002335992720638</v>
+        <v>1.006835449725867</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.020189787434278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.022069174349121</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01653251049004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9683912351794109</v>
+        <v>0.9713834891288189</v>
       </c>
       <c r="D19">
-        <v>0.999298332073604</v>
+        <v>1.001936297578866</v>
       </c>
       <c r="E19">
-        <v>0.9800182480573877</v>
+        <v>0.9826351729758637</v>
       </c>
       <c r="F19">
-        <v>0.9359070282250598</v>
+        <v>0.9391230302694218</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.037470278398293</v>
+        <v>1.03880489135141</v>
       </c>
       <c r="J19">
-        <v>0.9965619952610306</v>
+        <v>0.9994317143054667</v>
       </c>
       <c r="K19">
-        <v>1.013064579693608</v>
+        <v>1.015657327031653</v>
       </c>
       <c r="L19">
-        <v>0.9941245928156066</v>
+        <v>0.9966943385402695</v>
       </c>
       <c r="M19">
-        <v>0.9508610002876633</v>
+        <v>0.9540116597633888</v>
       </c>
       <c r="N19">
-        <v>1.002453578138101</v>
+        <v>1.006904393475279</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.020383884296542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.022233505456258</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01658420578724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9661617108524554</v>
+        <v>0.9693645517578177</v>
       </c>
       <c r="D20">
-        <v>0.9978178156452365</v>
+        <v>1.000654589155834</v>
       </c>
       <c r="E20">
-        <v>0.978227443032018</v>
+        <v>0.9810283967802774</v>
       </c>
       <c r="F20">
-        <v>0.9325177150111011</v>
+        <v>0.9359692183920229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.036876186298052</v>
+        <v>1.03831083299254</v>
       </c>
       <c r="J20">
-        <v>0.9950623776811597</v>
+        <v>0.9981297276364609</v>
       </c>
       <c r="K20">
-        <v>1.011899144970743</v>
+        <v>1.014685938159933</v>
       </c>
       <c r="L20">
-        <v>0.9926642542360524</v>
+        <v>0.9954132487037525</v>
       </c>
       <c r="M20">
-        <v>0.9478608808178248</v>
+        <v>0.9512398601317186</v>
       </c>
       <c r="N20">
-        <v>1.001940555699189</v>
+        <v>1.006616352341297</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.019563851917806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.021551067669438</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016361442670977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587050212491419</v>
+        <v>0.9627416354764348</v>
       </c>
       <c r="D21">
-        <v>0.9928701132752152</v>
+        <v>0.9964605129398323</v>
       </c>
       <c r="E21">
-        <v>0.9722490505400371</v>
+        <v>0.9757850182556422</v>
       </c>
       <c r="F21">
-        <v>0.9211326134343923</v>
+        <v>0.9255233484790204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.034865886868183</v>
+        <v>1.036679414702507</v>
       </c>
       <c r="J21">
-        <v>0.9900368108002152</v>
+        <v>0.9938841500884121</v>
       </c>
       <c r="K21">
-        <v>1.007987834372409</v>
+        <v>1.011509253700402</v>
       </c>
       <c r="L21">
-        <v>0.9877759620910573</v>
+        <v>0.9912401464918622</v>
       </c>
       <c r="M21">
-        <v>0.9377798269740064</v>
+        <v>0.9420678284418286</v>
       </c>
       <c r="N21">
-        <v>1.000218991075987</v>
+        <v>1.005906470173028</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.016801621666795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.019308627409573</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015635939454487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.953837550787025</v>
+        <v>0.9584287501237819</v>
       </c>
       <c r="D22">
-        <v>0.9896419365122229</v>
+        <v>0.9937306132004322</v>
       </c>
       <c r="E22">
-        <v>0.9683542492887718</v>
+        <v>0.97237884533667</v>
       </c>
       <c r="F22">
-        <v>0.9136590077027783</v>
+        <v>0.9186853473276585</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.033534417552468</v>
+        <v>1.035598012291281</v>
       </c>
       <c r="J22">
-        <v>0.9867466162436879</v>
+        <v>0.9911085480649584</v>
       </c>
       <c r="K22">
-        <v>1.005421419731598</v>
+        <v>1.009427299426355</v>
       </c>
       <c r="L22">
-        <v>0.9845798076512706</v>
+        <v>0.9885180858039846</v>
       </c>
       <c r="M22">
-        <v>0.9311595993938249</v>
+        <v>0.9360602231540565</v>
       </c>
       <c r="N22">
-        <v>0.999088186872758</v>
+        <v>1.005426466213514</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.014973137938662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.01782144367156</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015156006486314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9564199511750608</v>
+        <v>0.9606953240576867</v>
       </c>
       <c r="D23">
-        <v>0.9913488474272066</v>
+        <v>0.9951578959045214</v>
       </c>
       <c r="E23">
-        <v>0.9704169536429313</v>
+        <v>0.9741623631058051</v>
       </c>
       <c r="F23">
-        <v>0.9176354634040342</v>
+        <v>0.9222997865221965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.034238801444843</v>
+        <v>1.036162061151742</v>
       </c>
       <c r="J23">
-        <v>0.9884887534331275</v>
+        <v>0.9925575896739499</v>
       </c>
       <c r="K23">
-        <v>1.006776819710876</v>
+        <v>1.010510838560881</v>
       </c>
       <c r="L23">
-        <v>0.9862711406471342</v>
+        <v>0.9899385089818473</v>
       </c>
       <c r="M23">
-        <v>0.9346806555568776</v>
+        <v>0.9392323526113457</v>
       </c>
       <c r="N23">
-        <v>0.9996831814950983</v>
+        <v>1.005630288710857</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.01592162353647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.018576762953215</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015402934497031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9662614423331705</v>
+        <v>0.9694557136139422</v>
       </c>
       <c r="D24">
-        <v>0.9978757157473785</v>
+        <v>1.0007037624226</v>
       </c>
       <c r="E24">
-        <v>0.9783035093773416</v>
+        <v>0.9810974074353502</v>
       </c>
       <c r="F24">
-        <v>0.9326794657748307</v>
+        <v>0.9361212446946935</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.036897080821247</v>
+        <v>1.038327342464482</v>
       </c>
       <c r="J24">
-        <v>0.9951230720222204</v>
+        <v>0.9981824443013729</v>
       </c>
       <c r="K24">
-        <v>1.011940239179406</v>
+        <v>1.014718530465643</v>
       </c>
       <c r="L24">
-        <v>0.9927226627681912</v>
+        <v>0.9954648096697128</v>
       </c>
       <c r="M24">
-        <v>0.9480017930228954</v>
+        <v>0.951371379453506</v>
       </c>
       <c r="N24">
-        <v>1.001955592611381</v>
+        <v>1.00662261640289</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.019564890632805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.021543457909848</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01636630866286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9770397677584984</v>
+        <v>0.9793603625508126</v>
       </c>
       <c r="D25">
-        <v>1.005045850807191</v>
+        <v>1.007011378761097</v>
       </c>
       <c r="E25">
-        <v>0.9869800050319486</v>
+        <v>0.98901581357825</v>
       </c>
       <c r="F25">
-        <v>0.9489963152184797</v>
+        <v>0.9514661297686235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039740967607312</v>
+        <v>1.040736904856648</v>
       </c>
       <c r="J25">
-        <v>1.002365335935788</v>
+        <v>1.004602872598322</v>
       </c>
       <c r="K25">
-        <v>1.017566338198314</v>
+        <v>1.019501818477961</v>
       </c>
       <c r="L25">
-        <v>0.9997838591606559</v>
+        <v>1.001787072208244</v>
       </c>
       <c r="M25">
-        <v>0.9624416049122528</v>
+        <v>0.9648676928807243</v>
       </c>
       <c r="N25">
-        <v>1.004436418659506</v>
+        <v>1.008313282335951</v>
       </c>
       <c r="Q25">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.023540059270615</v>
+        <v>1.024922339058751</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017467190028999</v>
       </c>
     </row>
   </sheetData>
